--- a/BASIC_ELECTRICAL_ENGINEERING_ATTENDANCE_SHEET_BME_FIRST_SEMESTER.xlsx
+++ b/BASIC_ELECTRICAL_ENGINEERING_ATTENDANCE_SHEET_BME_FIRST_SEMESTER.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="7120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="April" sheetId="24" r:id="rId1"/>
     <sheet name="May_June " sheetId="22" r:id="rId2"/>
-    <sheet name="Overall Attendance" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="25" r:id="rId3"/>
+    <sheet name="Overall Attendance" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">April!$A$1:$I$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'May_June '!$A$1:$M$78</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Overall Attendance'!$A$1:$I$99</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Overall Attendance'!$A$1:$I$99</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -208,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="113">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -1140,106 +1141,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1256,6 +1157,106 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1294,7 +1295,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1353,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1411,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,7 +1715,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -1723,7 +1724,7 @@
     <col min="1" max="1" width="4.69921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.296875" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.3984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" style="97" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" style="63" customWidth="1"/>
     <col min="5" max="5" width="9.796875" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.59765625" style="4" customWidth="1"/>
     <col min="7" max="7" width="7.09765625" style="4" customWidth="1"/>
@@ -1737,7 +1738,7 @@
       <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="92"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
@@ -1745,21 +1746,21 @@
     <row r="2" spans="1:23" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:23" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="36" t="s">
         <v>26</v>
       </c>
@@ -1785,19 +1786,19 @@
     <row r="4" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="61" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
@@ -1814,19 +1815,19 @@
     <row r="5" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="46"/>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="62" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
       <c r="L5" s="37"/>
       <c r="M5" s="37"/>
       <c r="N5" s="37"/>
@@ -1843,108 +1844,108 @@
     <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="61" t="s">
+      <c r="D6" s="70"/>
+      <c r="E6" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
     </row>
     <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="61" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="46"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59" t="s">
+      <c r="D8" s="70"/>
+      <c r="E8" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="93"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="67" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="94">
+      <c r="D10" s="60">
         <v>19</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
-      <c r="H10" s="65" t="s">
+      <c r="H10" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="69" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="61" t="s">
         <v>107</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
     </row>
     <row r="12" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="94">
+      <c r="D12" s="60">
         <v>3</v>
       </c>
       <c r="E12" s="23"/>
@@ -1958,17 +1959,17 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="30">
@@ -1980,7 +1981,7 @@
       <c r="C14" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="62">
         <v>3</v>
       </c>
       <c r="E14" s="13"/>
@@ -2005,7 +2006,7 @@
       <c r="C15" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="96">
+      <c r="D15" s="62">
         <v>3</v>
       </c>
       <c r="E15" s="13"/>
@@ -2030,7 +2031,7 @@
       <c r="C16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="96">
+      <c r="D16" s="62">
         <v>3</v>
       </c>
       <c r="E16" s="13"/>
@@ -2055,7 +2056,7 @@
       <c r="C17" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="96">
+      <c r="D17" s="62">
         <v>3</v>
       </c>
       <c r="E17" s="13"/>
@@ -2080,7 +2081,7 @@
       <c r="C18" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="96">
+      <c r="D18" s="62">
         <v>3</v>
       </c>
       <c r="E18" s="13"/>
@@ -2105,7 +2106,7 @@
       <c r="C19" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="96">
+      <c r="D19" s="62">
         <v>3</v>
       </c>
       <c r="E19" s="13"/>
@@ -2130,7 +2131,7 @@
       <c r="C20" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="96">
+      <c r="D20" s="62">
         <v>3</v>
       </c>
       <c r="E20" s="13"/>
@@ -2155,7 +2156,7 @@
       <c r="C21" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="96">
+      <c r="D21" s="62">
         <v>3</v>
       </c>
       <c r="E21" s="13"/>
@@ -2180,7 +2181,7 @@
       <c r="C22" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="96">
+      <c r="D22" s="62">
         <v>3</v>
       </c>
       <c r="E22" s="13"/>
@@ -2205,7 +2206,7 @@
       <c r="C23" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="96">
+      <c r="D23" s="62">
         <v>3</v>
       </c>
       <c r="E23" s="13"/>
@@ -2230,7 +2231,7 @@
       <c r="C24" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="96">
+      <c r="D24" s="62">
         <v>3</v>
       </c>
       <c r="E24" s="13"/>
@@ -2255,7 +2256,7 @@
       <c r="C25" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="96">
+      <c r="D25" s="62">
         <v>0</v>
       </c>
       <c r="E25" s="13"/>
@@ -2280,7 +2281,7 @@
       <c r="C26" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="96">
+      <c r="D26" s="62">
         <v>3</v>
       </c>
       <c r="E26" s="13"/>
@@ -2305,7 +2306,7 @@
       <c r="C27" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="96">
+      <c r="D27" s="62">
         <v>0</v>
       </c>
       <c r="E27" s="13"/>
@@ -2330,7 +2331,7 @@
       <c r="C28" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="96">
+      <c r="D28" s="62">
         <v>3</v>
       </c>
       <c r="E28" s="13"/>
@@ -2355,7 +2356,7 @@
       <c r="C29" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="96">
+      <c r="D29" s="62">
         <v>3</v>
       </c>
       <c r="E29" s="13"/>
@@ -2380,7 +2381,7 @@
       <c r="C30" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="96">
+      <c r="D30" s="62">
         <v>3</v>
       </c>
       <c r="E30" s="13"/>
@@ -2405,7 +2406,7 @@
       <c r="C31" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="96">
+      <c r="D31" s="62">
         <v>3</v>
       </c>
       <c r="E31" s="13"/>
@@ -2430,7 +2431,7 @@
       <c r="C32" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="96">
+      <c r="D32" s="62">
         <v>3</v>
       </c>
       <c r="E32" s="13"/>
@@ -2455,7 +2456,7 @@
       <c r="C33" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="96">
+      <c r="D33" s="62">
         <v>0</v>
       </c>
       <c r="E33" s="13"/>
@@ -2480,7 +2481,7 @@
       <c r="C34" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="96">
+      <c r="D34" s="62">
         <v>3</v>
       </c>
       <c r="E34" s="13"/>
@@ -2505,7 +2506,7 @@
       <c r="C35" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="96">
+      <c r="D35" s="62">
         <v>3</v>
       </c>
       <c r="E35" s="13"/>
@@ -2530,7 +2531,7 @@
       <c r="C36" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="96">
+      <c r="D36" s="62">
         <v>3</v>
       </c>
       <c r="E36" s="13"/>
@@ -2555,7 +2556,7 @@
       <c r="C37" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="96">
+      <c r="D37" s="62">
         <v>3</v>
       </c>
       <c r="E37" s="13"/>
@@ -2580,7 +2581,7 @@
       <c r="C38" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="96">
+      <c r="D38" s="62">
         <v>3</v>
       </c>
       <c r="E38" s="13"/>
@@ -2605,7 +2606,7 @@
       <c r="C39" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="96">
+      <c r="D39" s="62">
         <v>3</v>
       </c>
       <c r="E39" s="13"/>
@@ -2630,7 +2631,7 @@
       <c r="C40" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="96">
+      <c r="D40" s="62">
         <v>3</v>
       </c>
       <c r="E40" s="13"/>
@@ -2655,7 +2656,7 @@
       <c r="C41" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="96">
+      <c r="D41" s="62">
         <v>3</v>
       </c>
       <c r="E41" s="13"/>
@@ -2680,7 +2681,7 @@
       <c r="C42" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="96">
+      <c r="D42" s="62">
         <v>3</v>
       </c>
       <c r="E42" s="13"/>
@@ -2705,7 +2706,7 @@
       <c r="C43" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="96">
+      <c r="D43" s="62">
         <v>3</v>
       </c>
       <c r="E43" s="13"/>
@@ -2730,7 +2731,7 @@
       <c r="C44" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="96">
+      <c r="D44" s="62">
         <v>0</v>
       </c>
       <c r="E44" s="13"/>
@@ -2755,7 +2756,7 @@
       <c r="C45" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="96">
+      <c r="D45" s="62">
         <v>3</v>
       </c>
       <c r="E45" s="13"/>
@@ -2780,7 +2781,7 @@
       <c r="C46" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="96">
+      <c r="D46" s="62">
         <v>3</v>
       </c>
       <c r="E46" s="13"/>
@@ -2805,7 +2806,7 @@
       <c r="C47" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="96">
+      <c r="D47" s="62">
         <v>3</v>
       </c>
       <c r="E47" s="13"/>
@@ -2830,7 +2831,7 @@
       <c r="C48" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="96">
+      <c r="D48" s="62">
         <v>3</v>
       </c>
       <c r="E48" s="13"/>
@@ -2855,7 +2856,7 @@
       <c r="C49" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="96">
+      <c r="D49" s="62">
         <v>0</v>
       </c>
       <c r="E49" s="13"/>
@@ -2880,7 +2881,7 @@
       <c r="C50" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="96">
+      <c r="D50" s="62">
         <v>3</v>
       </c>
       <c r="E50" s="13"/>
@@ -2905,7 +2906,7 @@
       <c r="C51" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="96">
+      <c r="D51" s="62">
         <v>3</v>
       </c>
       <c r="E51" s="13"/>
@@ -2930,12 +2931,12 @@
       <c r="C52" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="96">
+      <c r="D52" s="62">
         <v>3</v>
       </c>
       <c r="E52" s="9"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
       <c r="H52" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2946,17 +2947,17 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="64" t="s">
+      <c r="G53" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F54" s="3"/>
@@ -2969,22 +2970,13 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="98"/>
+      <c r="D59" s="64"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -2995,6 +2987,15 @@
     <mergeCell ref="E5:K5"/>
     <mergeCell ref="E6:K6"/>
     <mergeCell ref="E7:K7"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -3011,8 +3012,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A57" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3024,7 +3025,7 @@
     <col min="5" max="5" width="11.69921875" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.59765625" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="4.69921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.296875" style="4" customWidth="1"/>
     <col min="9" max="9" width="5.09765625" style="4" customWidth="1"/>
     <col min="10" max="10" width="3.8984375" style="4" customWidth="1"/>
     <col min="11" max="11" width="4.296875" style="4" customWidth="1"/>
@@ -3035,40 +3036,40 @@
     <row r="1" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="C1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="2" spans="1:27" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="1:27" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="36" t="s">
         <v>26</v>
       </c>
@@ -3098,19 +3099,19 @@
     <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="61" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
@@ -3131,19 +3132,19 @@
     <row r="5" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="62" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
       <c r="L5" s="37"/>
       <c r="M5" s="37"/>
       <c r="N5" s="37"/>
@@ -3164,53 +3165,53 @@
     <row r="6" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="61" t="s">
+      <c r="D6" s="70"/>
+      <c r="E6" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
     </row>
     <row r="7" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="61" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59" t="s">
+      <c r="D8" s="70"/>
+      <c r="E8" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -3226,10 +3227,10 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="78" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -3247,20 +3248,22 @@
       <c r="G10" s="22">
         <v>24</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="23">
+        <v>7</v>
+      </c>
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="75" t="s">
+      <c r="L10" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="77" t="s">
+      <c r="M10" s="83" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="68"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="22" t="s">
         <v>12</v>
       </c>
@@ -3276,16 +3279,18 @@
       <c r="G11" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="47" t="s">
+        <v>107</v>
+      </c>
       <c r="I11" s="27"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="78"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="84"/>
     </row>
     <row r="12" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="68"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="24" t="s">
         <v>9</v>
       </c>
@@ -3301,12 +3306,14 @@
       <c r="G12" s="23">
         <v>3</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="19">
+        <v>3</v>
+      </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M12" s="26">
         <f>(L12/$L$12)*100</f>
@@ -3314,21 +3321,21 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="69"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="80"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="87"/>
     </row>
     <row r="14" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
@@ -3352,16 +3359,18 @@
       <c r="G14" s="13">
         <v>3</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="13">
+        <v>3</v>
+      </c>
       <c r="I14" s="13"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="20">
-        <f>SUM(D14:K14)</f>
-        <v>12</v>
+        <f t="shared" ref="L14:L51" si="0">SUM(D14:K14)</f>
+        <v>15</v>
       </c>
       <c r="M14" s="21">
-        <f>(L14/$L$12)*$M$12</f>
+        <f t="shared" ref="M14:M45" si="1">(L14/$L$12)*$M$12</f>
         <v>100</v>
       </c>
     </row>
@@ -3387,16 +3396,18 @@
       <c r="G15" s="13">
         <v>3</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="13">
+        <v>3</v>
+      </c>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="20">
-        <f>SUM(D15:K15)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M15" s="21">
-        <f>(L15/$L$12)*$M$12</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -3422,16 +3433,18 @@
       <c r="G16" s="13">
         <v>3</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="13">
+        <v>3</v>
+      </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="20">
-        <f>SUM(D16:K16)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M16" s="21">
-        <f>(L16/$L$12)*$M$12</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -3457,16 +3470,18 @@
       <c r="G17" s="13">
         <v>3</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13">
+        <v>3</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="20">
-        <f>SUM(D17:K17)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M17" s="21">
-        <f>(L17/$L$12)*$M$12</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -3484,7 +3499,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="13">
         <v>0</v>
@@ -3492,17 +3507,19 @@
       <c r="G18" s="13">
         <v>0</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="13">
+        <v>3</v>
+      </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="20">
-        <f>SUM(D18:K18)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="M18" s="21">
-        <f>(L18/$L$12)*$M$12</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3527,16 +3544,18 @@
       <c r="G19" s="13">
         <v>3</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13">
+        <v>3</v>
+      </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="20">
-        <f>SUM(D19:K19)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M19" s="21">
-        <f>(L19/$L$12)*$M$12</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -3557,22 +3576,24 @@
         <v>3</v>
       </c>
       <c r="F20" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="13">
+        <v>3</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="20">
-        <f>SUM(D20:K20)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M20" s="21">
-        <f>(L20/$L$12)*$M$12</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3597,16 +3618,18 @@
       <c r="G21" s="13">
         <v>3</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="13">
+        <v>3</v>
+      </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="20">
-        <f>SUM(D21:K21)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M21" s="21">
-        <f>(L21/$L$12)*$M$12</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -3632,16 +3655,18 @@
       <c r="G22" s="13">
         <v>3</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="13">
+        <v>3</v>
+      </c>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="20">
-        <f>SUM(D22:K22)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M22" s="21">
-        <f>(L22/$L$12)*$M$12</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -3667,16 +3692,18 @@
       <c r="G23" s="13">
         <v>3</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="13">
+        <v>3</v>
+      </c>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="20">
-        <f>SUM(D23:K23)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M23" s="21">
-        <f>(L23/$L$12)*$M$12</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -3691,7 +3718,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" s="13">
         <v>3</v>
@@ -3702,17 +3729,19 @@
       <c r="G24" s="13">
         <v>3</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="20">
-        <f>SUM(D24:K24)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="M24" s="21">
-        <f>(L24/$L$12)*$M$12</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3737,17 +3766,19 @@
       <c r="G25" s="13">
         <v>3</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="13">
+        <v>3</v>
+      </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="20">
-        <f>SUM(D25:K25)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M25" s="21">
-        <f>(L25/$L$12)*$M$12</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3772,16 +3803,18 @@
       <c r="G26" s="13">
         <v>3</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="13">
+        <v>3</v>
+      </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="20">
-        <f>SUM(D26:K26)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M26" s="21">
-        <f>(L26/$L$12)*$M$12</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -3807,17 +3840,19 @@
       <c r="G27" s="13">
         <v>3</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="20">
-        <f>SUM(D27:K27)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M27" s="21">
-        <f>(L27/$L$12)*$M$12</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3842,17 +3877,19 @@
       <c r="G28" s="13">
         <v>3</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="13">
+        <v>3</v>
+      </c>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="20">
-        <f>SUM(D28:K28)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M28" s="21">
-        <f>(L28/$L$12)*$M$12</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3872,22 +3909,24 @@
         <v>3</v>
       </c>
       <c r="F29" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="13">
+        <v>3</v>
+      </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="20">
-        <f>SUM(D29:K29)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M29" s="21">
-        <f>(L29/$L$12)*$M$12</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3912,16 +3951,18 @@
       <c r="G30" s="13">
         <v>3</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="13">
+        <v>3</v>
+      </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="20">
-        <f>SUM(D30:K30)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M30" s="21">
-        <f>(L30/$L$12)*$M$12</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -3947,17 +3988,19 @@
       <c r="G31" s="13">
         <v>3</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="13">
+        <v>3</v>
+      </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="20">
-        <f>SUM(D31:K31)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M31" s="21">
-        <f>(L31/$L$12)*$M$12</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3982,17 +4025,19 @@
       <c r="G32" s="13">
         <v>3</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="13">
+        <v>3</v>
+      </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="20">
-        <f>SUM(D32:K32)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M32" s="21">
-        <f>(L32/$L$12)*$M$12</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4017,17 +4062,19 @@
       <c r="G33" s="13">
         <v>3</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="13">
+        <v>3</v>
+      </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="20">
-        <f>SUM(D33:K33)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M33" s="21">
-        <f>(L33/$L$12)*$M$12</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4052,16 +4099,18 @@
       <c r="G34" s="13">
         <v>3</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="13">
+        <v>3</v>
+      </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="20">
-        <f>SUM(D34:K34)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M34" s="21">
-        <f>(L34/$L$12)*$M$12</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -4087,16 +4136,18 @@
       <c r="G35" s="13">
         <v>3</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="13">
+        <v>3</v>
+      </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="20">
-        <f>SUM(D35:K35)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M35" s="21">
-        <f>(L35/$L$12)*$M$12</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -4122,17 +4173,19 @@
       <c r="G36" s="13">
         <v>3</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="13">
+        <v>3</v>
+      </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="20">
-        <f>SUM(D36:K36)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M36" s="21">
-        <f>(L36/$L$12)*$M$12</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4157,16 +4210,18 @@
       <c r="G37" s="13">
         <v>3</v>
       </c>
-      <c r="H37" s="13"/>
+      <c r="H37" s="13">
+        <v>3</v>
+      </c>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="20">
-        <f>SUM(D37:K37)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M37" s="21">
-        <f>(L37/$L$12)*$M$12</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -4184,25 +4239,27 @@
         <v>3</v>
       </c>
       <c r="E38" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38" s="13">
         <v>0</v>
       </c>
-      <c r="H38" s="13"/>
+      <c r="H38" s="13">
+        <v>3</v>
+      </c>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="20">
-        <f>SUM(D38:K38)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M38" s="21">
-        <f>(L38/$L$12)*$M$12</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4227,16 +4284,18 @@
       <c r="G39" s="13">
         <v>3</v>
       </c>
-      <c r="H39" s="13"/>
+      <c r="H39" s="13">
+        <v>3</v>
+      </c>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="20">
-        <f>SUM(D39:K39)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M39" s="21">
-        <f>(L39/$L$12)*$M$12</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -4262,17 +4321,19 @@
       <c r="G40" s="13">
         <v>3</v>
       </c>
-      <c r="H40" s="13"/>
+      <c r="H40" s="13">
+        <v>3</v>
+      </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="20">
-        <f>SUM(D40:K40)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M40" s="21">
-        <f>(L40/$L$12)*$M$12</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4297,17 +4358,19 @@
       <c r="G41" s="13">
         <v>0</v>
       </c>
-      <c r="H41" s="13"/>
+      <c r="H41" s="13">
+        <v>3</v>
+      </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="20">
-        <f>SUM(D41:K41)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M41" s="21">
-        <f>(L41/$L$12)*$M$12</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4321,7 +4384,7 @@
         <v>52</v>
       </c>
       <c r="D42" s="54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E42" s="13">
         <v>3</v>
@@ -4332,17 +4395,19 @@
       <c r="G42" s="13">
         <v>0</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="13">
+        <v>3</v>
+      </c>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="20">
-        <f>SUM(D42:K42)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M42" s="21">
-        <f>(L42/$L$12)*$M$12</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4367,16 +4432,18 @@
       <c r="G43" s="13">
         <v>3</v>
       </c>
-      <c r="H43" s="13"/>
+      <c r="H43" s="13">
+        <v>3</v>
+      </c>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="20">
-        <f>SUM(D43:K43)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M43" s="21">
-        <f>(L43/$L$12)*$M$12</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -4402,17 +4469,19 @@
       <c r="G44" s="13">
         <v>3</v>
       </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="13">
+        <v>3</v>
+      </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
       <c r="L44" s="20">
-        <f>SUM(D44:K44)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M44" s="21">
-        <f>(L44/$L$12)*$M$12</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4437,17 +4506,19 @@
       <c r="G45" s="13">
         <v>0</v>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="13">
+        <v>3</v>
+      </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
       <c r="L45" s="20">
-        <f>SUM(D45:K45)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M45" s="21">
-        <f>(L45/$L$12)*$M$12</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4472,16 +4543,18 @@
       <c r="G46" s="13">
         <v>3</v>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="13">
+        <v>3</v>
+      </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="20">
-        <f>SUM(D46:K46)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M46" s="21">
-        <f>(L46/$L$12)*$M$12</f>
+        <f t="shared" ref="M46:M77" si="2">(L46/$L$12)*$M$12</f>
         <v>100</v>
       </c>
     </row>
@@ -4496,7 +4569,7 @@
         <v>65</v>
       </c>
       <c r="D47" s="54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47" s="13">
         <v>3</v>
@@ -4507,17 +4580,19 @@
       <c r="G47" s="13">
         <v>0</v>
       </c>
-      <c r="H47" s="13"/>
+      <c r="H47" s="13">
+        <v>3</v>
+      </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="20">
-        <f>SUM(D47:K47)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M47" s="21">
-        <f>(L47/$L$12)*$M$12</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4542,16 +4617,18 @@
       <c r="G48" s="13">
         <v>3</v>
       </c>
-      <c r="H48" s="13"/>
+      <c r="H48" s="13">
+        <v>3</v>
+      </c>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="20">
-        <f>SUM(D48:K48)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M48" s="21">
-        <f>(L48/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -4577,16 +4654,18 @@
       <c r="G49" s="13">
         <v>3</v>
       </c>
-      <c r="H49" s="13"/>
+      <c r="H49" s="13">
+        <v>3</v>
+      </c>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="20">
-        <f>SUM(D49:K49)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M49" s="21">
-        <f>(L49/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -4612,16 +4691,18 @@
       <c r="G50" s="13">
         <v>3</v>
       </c>
-      <c r="H50" s="13"/>
+      <c r="H50" s="13">
+        <v>3</v>
+      </c>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="20">
-        <f>SUM(D50:K50)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M50" s="21">
-        <f>(L50/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -4640,11 +4721,11 @@
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
       <c r="L51" s="20">
-        <f>SUM(D51:K51)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M51" s="21">
-        <f>(L51/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4663,11 +4744,11 @@
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="20">
-        <f t="shared" ref="L52:L75" si="0">SUM(D52:K52)</f>
+        <f t="shared" ref="L52:L75" si="3">SUM(D52:K52)</f>
         <v>0</v>
       </c>
       <c r="M52" s="21">
-        <f>(L52/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4686,11 +4767,11 @@
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
       <c r="L53" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M53" s="21">
-        <f>(L53/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4709,11 +4790,11 @@
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
       <c r="L54" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M54" s="21">
-        <f>(L54/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4732,11 +4813,11 @@
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
       <c r="L55" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M55" s="21">
-        <f>(L55/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4755,11 +4836,11 @@
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
       <c r="L56" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M56" s="21">
-        <f>(L56/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4778,11 +4859,11 @@
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
       <c r="L57" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M57" s="21">
-        <f>(L57/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4801,11 +4882,11 @@
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
       <c r="L58" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M58" s="21">
-        <f>(L58/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4824,11 +4905,11 @@
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M59" s="21">
-        <f>(L59/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4847,11 +4928,11 @@
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
       <c r="L60" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M60" s="21">
-        <f>(L60/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4870,11 +4951,11 @@
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
       <c r="L61" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M61" s="21">
-        <f>(L61/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4893,11 +4974,11 @@
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
       <c r="L62" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M62" s="21">
-        <f>(L62/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4916,11 +4997,11 @@
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
       <c r="L63" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M63" s="21">
-        <f>(L63/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4939,11 +5020,11 @@
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
       <c r="L64" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M64" s="21">
-        <f>(L64/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4962,11 +5043,11 @@
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
       <c r="L65" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M65" s="21">
-        <f>(L65/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4985,11 +5066,11 @@
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
       <c r="L66" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M66" s="21">
-        <f>(L66/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5008,11 +5089,11 @@
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
       <c r="L67" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M67" s="21">
-        <f>(L67/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5031,11 +5112,11 @@
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
       <c r="L68" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M68" s="21">
-        <f>(L68/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5054,11 +5135,11 @@
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
       <c r="L69" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M69" s="21">
-        <f>(L69/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5077,11 +5158,11 @@
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
       <c r="L70" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M70" s="21">
-        <f>(L70/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5100,11 +5181,11 @@
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
       <c r="L71" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M71" s="21">
-        <f>(L71/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5123,11 +5204,11 @@
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M72" s="21">
-        <f>(L72/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5146,11 +5227,11 @@
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
       <c r="L73" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M73" s="21">
-        <f>(L73/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5169,11 +5250,11 @@
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
       <c r="L74" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M74" s="21">
-        <f>(L74/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5192,11 +5273,11 @@
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
       <c r="L75" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M75" s="21">
-        <f>(L75/$L$12)*$M$12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5211,10 +5292,10 @@
       <c r="K76" s="10"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C77" s="79" t="s">
+      <c r="C77" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="79"/>
+      <c r="D77" s="74"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -5249,11 +5330,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:K4"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="D13:M13"/>
@@ -5263,11 +5344,11 @@
     <mergeCell ref="E6:K6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:K7"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -5284,6 +5365,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I82"/>
@@ -5309,26 +5402,26 @@
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="C1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -5336,13 +5429,13 @@
       <c r="C3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -5350,13 +5443,13 @@
       <c r="C4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -5364,11 +5457,11 @@
       <c r="C5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -5376,11 +5469,11 @@
       <c r="C6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -5388,11 +5481,11 @@
       <c r="C7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
@@ -5405,31 +5498,31 @@
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="81" t="s">
+      <c r="B9" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="88" t="str">
+      <c r="D9" s="99" t="str">
         <f>April!E5</f>
         <v>May-June 2024</v>
       </c>
-      <c r="E9" s="88" t="e">
+      <c r="E9" s="99" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F9" s="88" t="str">
+      <c r="F9" s="99" t="str">
         <f>'May_June '!E5</f>
         <v>May-June 2024</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="97" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="90" t="s">
@@ -5437,19 +5530,19 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="87"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="98"/>
       <c r="I10" s="91"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="38" t="s">
         <v>9</v>
       </c>
@@ -5463,7 +5556,7 @@
       </c>
       <c r="F11" s="39">
         <f>'May_June '!L12</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11" s="40" t="e">
         <f t="shared" ref="G11:G54" si="0">SUM(D11:F11)</f>
@@ -5495,7 +5588,7 @@
       </c>
       <c r="F12" s="13">
         <f>'May_June '!L14</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G12" s="14" t="e">
         <f t="shared" si="0"/>
@@ -5530,7 +5623,7 @@
       </c>
       <c r="F13" s="13">
         <f>'May_June '!L15</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" s="14" t="e">
         <f t="shared" si="0"/>
@@ -5565,7 +5658,7 @@
       </c>
       <c r="F14" s="13">
         <f>'May_June '!L16</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G14" s="14" t="e">
         <f t="shared" si="0"/>
@@ -5600,7 +5693,7 @@
       </c>
       <c r="F15" s="13">
         <f>'May_June '!L17</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G15" s="14" t="e">
         <f t="shared" si="0"/>
@@ -5635,7 +5728,7 @@
       </c>
       <c r="F16" s="13">
         <f>'May_June '!L18</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G16" s="14" t="e">
         <f t="shared" si="0"/>
@@ -5670,7 +5763,7 @@
       </c>
       <c r="F17" s="13">
         <f>'May_June '!L19</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G17" s="14" t="e">
         <f t="shared" si="0"/>
@@ -5705,7 +5798,7 @@
       </c>
       <c r="F18" s="13">
         <f>'May_June '!L20</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G18" s="14" t="e">
         <f t="shared" si="0"/>
@@ -5740,7 +5833,7 @@
       </c>
       <c r="F19" s="13">
         <f>'May_June '!L21</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G19" s="14" t="e">
         <f t="shared" si="0"/>
@@ -5775,7 +5868,7 @@
       </c>
       <c r="F20" s="13">
         <f>'May_June '!L22</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G20" s="14" t="e">
         <f t="shared" si="0"/>
@@ -5810,7 +5903,7 @@
       </c>
       <c r="F21" s="13">
         <f>'May_June '!L23</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G21" s="14" t="e">
         <f t="shared" si="0"/>
@@ -5845,7 +5938,7 @@
       </c>
       <c r="F22" s="13">
         <f>'May_June '!L24</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G22" s="14" t="e">
         <f t="shared" si="0"/>
@@ -5880,7 +5973,7 @@
       </c>
       <c r="F23" s="13">
         <f>'May_June '!L25</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G23" s="14" t="e">
         <f t="shared" si="0"/>
@@ -5950,7 +6043,7 @@
       </c>
       <c r="F25" s="13">
         <f>'May_June '!L26</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G25" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6020,7 +6113,7 @@
       </c>
       <c r="F27" s="13">
         <f>'May_June '!L28</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G27" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6055,7 +6148,7 @@
       </c>
       <c r="F28" s="13">
         <f>'May_June '!L29</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G28" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6090,7 +6183,7 @@
       </c>
       <c r="F29" s="13">
         <f>'May_June '!L30</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G29" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6125,7 +6218,7 @@
       </c>
       <c r="F30" s="13">
         <f>'May_June '!L31</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G30" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6160,7 +6253,7 @@
       </c>
       <c r="F31" s="13">
         <f>'May_June '!L32</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G31" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6195,7 +6288,7 @@
       </c>
       <c r="F32" s="13">
         <f>'May_June '!L33</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G32" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6230,7 +6323,7 @@
       </c>
       <c r="F33" s="13">
         <f>'May_June '!L34</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G33" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6265,7 +6358,7 @@
       </c>
       <c r="F34" s="13">
         <f>'May_June '!L35</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G34" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6300,7 +6393,7 @@
       </c>
       <c r="F35" s="13">
         <f>'May_June '!L36</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G35" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6335,7 +6428,7 @@
       </c>
       <c r="F36" s="13">
         <f>'May_June '!L37</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G36" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6370,7 +6463,7 @@
       </c>
       <c r="F37" s="13">
         <f>'May_June '!L38</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G37" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6405,7 +6498,7 @@
       </c>
       <c r="F38" s="13">
         <f>'May_June '!L39</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G38" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6440,7 +6533,7 @@
       </c>
       <c r="F39" s="13">
         <f>'May_June '!L40</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G39" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6475,7 +6568,7 @@
       </c>
       <c r="F40" s="13">
         <f>'May_June '!L41</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G40" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6510,7 +6603,7 @@
       </c>
       <c r="F41" s="13">
         <f>'May_June '!L42</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G41" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6545,7 +6638,7 @@
       </c>
       <c r="F42" s="13">
         <f>'May_June '!L43</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G42" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6580,7 +6673,7 @@
       </c>
       <c r="F43" s="13">
         <f>'May_June '!L44</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G43" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6615,7 +6708,7 @@
       </c>
       <c r="F44" s="13">
         <f>'May_June '!L45</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G44" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6650,7 +6743,7 @@
       </c>
       <c r="F45" s="13">
         <f>'May_June '!L46</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G45" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6685,7 +6778,7 @@
       </c>
       <c r="F46" s="13">
         <f>'May_June '!L47</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G46" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6720,7 +6813,7 @@
       </c>
       <c r="F47" s="13">
         <f>'May_June '!L48</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G47" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6755,7 +6848,7 @@
       </c>
       <c r="F48" s="13">
         <f>'May_June '!L49</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G48" s="14" t="e">
         <f t="shared" si="0"/>
@@ -6790,7 +6883,7 @@
       </c>
       <c r="F49" s="13">
         <f>'May_June '!L50</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G49" s="14" t="e">
         <f t="shared" si="0"/>
@@ -7591,6 +7684,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="C1:H1"/>
@@ -7600,14 +7701,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="5" scale="90" orientation="portrait" r:id="rId1"/>
